--- a/Effort Estimation Sheet.xlsx
+++ b/Effort Estimation Sheet.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>User Story ID</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Additional information</t>
+  </si>
+  <si>
+    <t>Taka út öruglega</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,6 +703,9 @@
       <c r="H4" s="3">
         <v>5</v>
       </c>
+      <c r="I4" s="3">
+        <v>6</v>
+      </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
@@ -789,6 +795,9 @@
       <c r="H7" s="3">
         <v>13</v>
       </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
       <c r="J7" s="3">
         <v>2</v>
       </c>
@@ -854,7 +863,9 @@
       <c r="J9" s="3">
         <v>4</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
@@ -957,6 +968,9 @@
       <c r="H13" s="3">
         <v>15</v>
       </c>
+      <c r="I13" s="3">
+        <v>12</v>
+      </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -981,6 +995,9 @@
       <c r="H14" s="3">
         <v>15</v>
       </c>
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
@@ -1076,6 +1093,9 @@
       <c r="H17" s="3">
         <v>8</v>
       </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
       <c r="J17" s="3">
         <v>2</v>
       </c>
@@ -1136,6 +1156,9 @@
         <v>1</v>
       </c>
       <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
         <v>2</v>
       </c>
       <c r="J19" t="s">
